--- a/TMA_Metrics.xlsx
+++ b/TMA_Metrics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{AAF1D2F5-203B-4C1D-911C-2670D4607C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23BE9142-90B9-4FF4-B9A7-E5606DA93FE4}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="14_{AAF1D2F5-203B-4C1D-911C-2670D4607C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F37D8812-048F-4FC3-9431-14B49491AFE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="891">
   <si>
     <t>TMA</t>
   </si>
@@ -2772,9 +2772,6 @@
     <t>KBLR/CFL/CML</t>
   </si>
   <si>
-    <t>PERF_METRICS.FRONTEND_BOUND / #PERF_METRICS_SUM - INT_MISC.UOP_DROPPING / SLOTS if #PERF_METRICS_MSR else ( IDQ_UOPS_NOT_DELIVERED.CORE - INT_MISC.UOP_DROPPING ) / SLOTS</t>
-  </si>
-  <si>
     <t>TmaL1</t>
   </si>
   <si>
@@ -2790,9 +2787,6 @@
     <t>FetchLat;MemoryTLB</t>
   </si>
   <si>
-    <t>INT_MISC.CLEAR_RESTEER_CYCLES / CLKS + Unknown_Branches</t>
-  </si>
-  <si>
     <t>BadSpec;FetchLat</t>
   </si>
   <si>
@@ -2847,9 +2841,6 @@
     <t>BadSpec;MachineClears;TmaL2</t>
   </si>
   <si>
-    <t>PERF_METRICS.BACKEND_BOUND / #PERF_METRICS_SUM + ( #Pipeline_Width * INT_MISC.RECOVERY_CYCLES:c1:e1 ) / SLOTS if #PERF_METRICS_MSR else ( TOPDOWN.BACKEND_BOUND_SLOTS + #Pipeline_Width * INT_MISC.RECOVERY_CYCLES:c1:e1 ) / SLOTS</t>
-  </si>
-  <si>
     <t>1 - Frontend_Bound - ( UOPS_ISSUED.ANY + #Pipeline_Width * #Recovery_Cycles ) / SLOTS</t>
   </si>
   <si>
@@ -2895,15 +2886,9 @@
     <t>PortsUtil</t>
   </si>
   <si>
-    <t>PERF_METRICS.RETIRING / #PERF_METRICS_SUM if #PERF_METRICS_MSR else UOPS_RETIRED.SLOTS / SLOTS</t>
-  </si>
-  <si>
     <t>Retire;TmaL2</t>
   </si>
   <si>
-    <t>X87_Use + FP_Scalar + FP_Vector</t>
-  </si>
-  <si>
     <t>Compute;Flops</t>
   </si>
   <si>
@@ -2928,9 +2913,6 @@
     <t>Pipeline;PortsUtil</t>
   </si>
   <si>
-    <t xml:space="preserve"> ( Branch_Mispredicts + Fetch_Latency * Mispredicts_Resteers / ##Fetch_Latency ) * SLOTS / BR_MISP_RETIRED.ALL_BRANCHES_PS</t>
-  </si>
-  <si>
     <t>InsType</t>
   </si>
   <si>
@@ -3034,9 +3016,6 @@
   </si>
   <si>
     <t>EXE_ACTIVITY.1_PORTS_UTIL + Retiring * EXE_ACTIVITY.2_PORTS_UTIL</t>
-  </si>
-  <si>
-    <t>( PERF_METRICS.FRONTEND_BOUND + PERF_METRICS.BAD_SPECULATION + PERF_METRICS.RETIRING + PERF_METRICS.BACKEND_BOUND ) if #PERF_METRICS_MSR else #NA</t>
   </si>
   <si>
     <t>DurationTimeInMilliSeconds</t>
@@ -3604,6 +3583,30 @@
   </si>
   <si>
     <t xml:space="preserve">* Fixed Ports_Utilization for detection of serializing operations [SKL onwards]. Fixes bug report: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERF_METRICS.RETIRING / #PERF_METRICS_SUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( PERF_METRICS.FRONTEND_BOUND + PERF_METRICS.BAD_SPECULATION + PERF_METRICS.RETIRING + PERF_METRICS.BACKEND_BOUND ) </t>
+  </si>
+  <si>
+    <t>Cleaned PERF_METRICS_MSR</t>
+  </si>
+  <si>
+    <t>FP_Scalar + FP_Vector</t>
+  </si>
+  <si>
+    <t>PERF_METRICS.FRONTEND_BOUND / #PERF_METRICS_SUM - INT_MISC.UOP_DROPPING / SLOTS</t>
+  </si>
+  <si>
+    <t>PERF_METRICS.BACKEND_BOUND / #PERF_METRICS_SUM + ( #Pipeline_Width * INT_MISC.RECOVERY_CYCLES:c1:e1 ) / SLOTS</t>
+  </si>
+  <si>
+    <t>( INT_MISC.CLEAR_RESTEER_CYCLES + #BAClear_Cost * BACLEARS.ANY ) / CLKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( Branch_Mispredicts + Fetch_Latency * Branch_Resteers / ##Fetch_Latency ) * SLOTS / BR_MISP_RETIRED.ALL_BRANCHES_PS</t>
   </si>
 </sst>
 </file>
@@ -3614,7 +3617,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3908,6 +3911,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -4096,7 +4105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4271,6 +4280,12 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4681,11 +4696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F6136-1574-414C-8691-CBD559C3C765}">
   <dimension ref="A1:AD147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,8 +4745,8 @@
       <c r="Y1" s="54"/>
       <c r="Z1" s="54"/>
       <c r="AA1" s="54"/>
-      <c r="AB1" s="54">
-        <v>4.2009999999999996</v>
+      <c r="AB1" s="97">
+        <v>4.2030000000000003</v>
       </c>
       <c r="AC1" s="54"/>
       <c r="AD1" s="54"/>
@@ -4872,7 +4887,7 @@
       <c r="D4" s="57"/>
       <c r="E4" s="58"/>
       <c r="I4" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="W4" t="s">
         <v>27</v>
@@ -4893,7 +4908,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -4907,7 +4922,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="I5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -4934,7 +4949,7 @@
         <v>4.3</v>
       </c>
       <c r="AC5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -4978,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -5013,7 +5028,7 @@
         <v>3.2</v>
       </c>
       <c r="AC7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -5027,7 +5042,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="O8" t="s">
-        <v>718</v>
+        <v>889</v>
       </c>
       <c r="W8" t="s">
         <v>49</v>
@@ -5048,7 +5063,7 @@
         <v>3.3</v>
       </c>
       <c r="AC8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -5080,7 +5095,7 @@
         <v>3.6</v>
       </c>
       <c r="AC9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -5112,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="AC10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -5132,7 +5147,7 @@
         <v>649</v>
       </c>
       <c r="X11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Y11" t="s">
         <v>28</v>
@@ -5147,7 +5162,7 @@
         <v>4.2</v>
       </c>
       <c r="AC11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -5161,16 +5176,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="I12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="U12" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="X12" t="s">
         <v>57</v>
       </c>
       <c r="Y12" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Z12" t="s">
         <v>570</v>
@@ -5182,7 +5197,7 @@
         <v>4.2</v>
       </c>
       <c r="AC12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -5196,13 +5211,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="I13" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Y13" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Z13" t="s">
         <v>572</v>
@@ -5214,7 +5229,7 @@
         <v>4.2</v>
       </c>
       <c r="AC13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -5228,16 +5243,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="I14" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M14" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="W14" t="s">
         <v>38</v>
       </c>
       <c r="Y14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Z14" t="s">
         <v>574</v>
@@ -5249,7 +5264,7 @@
         <v>4.2</v>
       </c>
       <c r="AC14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -5287,7 +5302,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -5319,7 +5334,7 @@
         <v>4.2</v>
       </c>
       <c r="AC16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -5354,7 +5369,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -5368,10 +5383,10 @@
       <c r="D18" s="57"/>
       <c r="E18" s="58"/>
       <c r="I18" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="O18" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="W18" t="s">
         <v>79</v>
@@ -5392,7 +5407,7 @@
         <v>4.2</v>
       </c>
       <c r="AC18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -5424,7 +5439,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -5462,7 +5477,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC20" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -5476,7 +5491,7 @@
         <v>90</v>
       </c>
       <c r="O21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Q21" t="s">
         <v>91</v>
@@ -5500,7 +5515,7 @@
         <v>4.2</v>
       </c>
       <c r="AC21" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -5532,13 +5547,13 @@
         <v>97</v>
       </c>
       <c r="AA22" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AB22">
         <v>4</v>
       </c>
       <c r="AC22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -5582,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="AC23" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -5620,7 +5635,7 @@
         <v>3.3</v>
       </c>
       <c r="AC24" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -5661,7 +5676,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC25" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -5690,7 +5705,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC26" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -5719,7 +5734,7 @@
         <v>3.1</v>
       </c>
       <c r="AC27" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -5751,7 +5766,7 @@
         <v>3.5</v>
       </c>
       <c r="AC28" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -5783,7 +5798,7 @@
         <v>88</v>
       </c>
       <c r="Z29" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AA29" t="s">
         <v>130</v>
@@ -5792,7 +5807,7 @@
         <v>4.2</v>
       </c>
       <c r="AC29" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -5824,7 +5839,7 @@
         <v>4.2</v>
       </c>
       <c r="AC30" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -5876,7 +5891,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="O32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="Q32" t="s">
         <v>142</v>
@@ -5897,7 +5912,7 @@
         <v>4.2</v>
       </c>
       <c r="AC32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -5946,7 +5961,7 @@
       <c r="D34" s="57"/>
       <c r="E34" s="58"/>
       <c r="I34" t="s">
-        <v>753</v>
+        <v>883</v>
       </c>
       <c r="W34" t="s">
         <v>151</v>
@@ -5967,7 +5982,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
@@ -6002,7 +6017,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC35" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
@@ -6016,13 +6031,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="Q36" t="s">
-        <v>755</v>
+        <v>886</v>
       </c>
       <c r="S36" t="s">
         <v>38</v>
       </c>
       <c r="W36" t="s">
-        <v>755</v>
+        <v>886</v>
       </c>
       <c r="Y36" t="s">
         <v>155</v>
@@ -6075,7 +6090,7 @@
         <v>4.2</v>
       </c>
       <c r="AC37" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
@@ -6113,7 +6128,7 @@
         <v>4.2</v>
       </c>
       <c r="AC38" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
@@ -6123,7 +6138,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="71" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E39" s="2"/>
       <c r="J39" t="s">
@@ -6189,7 +6204,7 @@
         <v>4.2</v>
       </c>
       <c r="AC40" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
@@ -6206,7 +6221,7 @@
         <v>583</v>
       </c>
       <c r="X41" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="Y41" t="s">
         <v>28</v>
@@ -6221,7 +6236,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC41" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -6328,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="AC45" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
@@ -6409,7 +6424,7 @@
         <v>4</v>
       </c>
       <c r="AC48" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -6435,7 +6450,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC49" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="AD49">
         <v>5</v>
@@ -6470,7 +6485,7 @@
         <v>4.2</v>
       </c>
       <c r="AC50" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="AD50">
         <v>10</v>
@@ -6508,7 +6523,7 @@
         <v>2.9</v>
       </c>
       <c r="AC51" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AD51">
         <v>10</v>
@@ -6525,7 +6540,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="82"/>
       <c r="Q52" t="s">
-        <v>764</v>
+        <v>890</v>
       </c>
       <c r="W52" t="s">
         <v>38</v>
@@ -6636,7 +6651,7 @@
         <v>3.3</v>
       </c>
       <c r="AC55" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
@@ -6665,7 +6680,7 @@
         <v>3.2</v>
       </c>
       <c r="AC56" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
@@ -6691,7 +6706,7 @@
         <v>3.2</v>
       </c>
       <c r="AC57" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
@@ -6772,7 +6787,7 @@
         <v>4.2</v>
       </c>
       <c r="AC60" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
@@ -6801,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="AC61" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
@@ -6862,7 +6877,7 @@
         <v>4</v>
       </c>
       <c r="AC63" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -6897,7 +6912,7 @@
         <v>3.1</v>
       </c>
       <c r="AC64" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AD64">
         <v>1000</v>
@@ -6929,7 +6944,7 @@
         <v>3.4</v>
       </c>
       <c r="AC65" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="AD65">
         <v>10</v>
@@ -6976,7 +6991,7 @@
         <v>4</v>
       </c>
       <c r="AC66" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -7008,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="AC67" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
@@ -7037,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="AC68" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
@@ -7066,7 +7081,7 @@
         <v>4</v>
       </c>
       <c r="AC69" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
@@ -7095,7 +7110,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC70" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
@@ -7127,7 +7142,7 @@
         <v>3.3</v>
       </c>
       <c r="AC71" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
@@ -7159,7 +7174,7 @@
         <v>3.3</v>
       </c>
       <c r="AC72" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
@@ -7197,7 +7212,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC73" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
@@ -7232,7 +7247,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC74" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
@@ -7267,12 +7282,12 @@
         <v>3.3</v>
       </c>
       <c r="AC75" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>276</v>
@@ -7296,12 +7311,12 @@
         <v>4.2</v>
       </c>
       <c r="AC76" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>279</v>
@@ -7325,7 +7340,7 @@
         <v>4.2</v>
       </c>
       <c r="AC77" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
@@ -7368,7 +7383,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="W79" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="Y79" t="s">
         <v>287</v>
@@ -7394,13 +7409,13 @@
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="Q80" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="S80" t="s">
         <v>38</v>
       </c>
       <c r="W80" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="Y80" t="s">
         <v>171</v>
@@ -7412,7 +7427,7 @@
         <v>4.2</v>
       </c>
       <c r="AC80" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AD80">
         <v>200</v>
@@ -7464,7 +7479,7 @@
         <v>608</v>
       </c>
       <c r="W82" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="Y82" t="s">
         <v>213</v>
@@ -7493,7 +7508,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="W83" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Y83" t="s">
         <v>171</v>
@@ -7525,10 +7540,10 @@
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="V84" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="W84" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="Y84" t="s">
         <v>605</v>
@@ -7543,7 +7558,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC84" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AD84">
         <v>200</v>
@@ -7590,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="AC85" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="AD85">
         <v>1000</v>
@@ -7637,7 +7652,7 @@
         <v>4</v>
       </c>
       <c r="AC86" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="AD86">
         <v>100</v>
@@ -7654,7 +7669,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="H87" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="L87" t="s">
         <v>313</v>
@@ -7672,7 +7687,7 @@
         <v>4.2</v>
       </c>
       <c r="AC87" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
@@ -7686,7 +7701,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="L88" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="W88" t="s">
         <v>38</v>
@@ -7701,7 +7716,7 @@
         <v>4</v>
       </c>
       <c r="AC88" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
@@ -7715,7 +7730,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="L89" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="W89" t="s">
         <v>38</v>
@@ -7730,7 +7745,7 @@
         <v>4</v>
       </c>
       <c r="AC89" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
@@ -7744,10 +7759,10 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="H90" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="N90" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Y90" t="s">
         <v>605</v>
@@ -7759,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="AC90" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
@@ -7773,10 +7788,10 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="H91" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="N91" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="Y91" t="s">
         <v>605</v>
@@ -7788,7 +7803,7 @@
         <v>4</v>
       </c>
       <c r="AC91" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
@@ -7805,13 +7820,13 @@
         <v>319</v>
       </c>
       <c r="S92" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="T92" t="s">
         <v>320</v>
       </c>
       <c r="U92" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="W92" t="s">
         <v>38</v>
@@ -7933,7 +7948,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="W96" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Y96" t="s">
         <v>171</v>
@@ -7976,7 +7991,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="2"/>
       <c r="O98" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="Q98" t="s">
         <v>398</v>
@@ -8005,7 +8020,7 @@
         <v>626</v>
       </c>
       <c r="O99" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="Y99" t="s">
         <v>192</v>
@@ -8114,7 +8129,7 @@
         <v>393</v>
       </c>
       <c r="O104" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q104" t="s">
         <v>394</v>
@@ -8170,7 +8185,7 @@
         <v>4.2</v>
       </c>
       <c r="AC105" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -8202,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="AC106" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
@@ -8240,7 +8255,7 @@
         <v>4.2</v>
       </c>
       <c r="AC107" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
@@ -8329,7 +8344,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC111" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
@@ -8735,7 +8750,7 @@
         <v>628</v>
       </c>
       <c r="I128" t="s">
-        <v>800</v>
+        <v>884</v>
       </c>
       <c r="W128" t="s">
         <v>38</v>
@@ -8747,7 +8762,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
@@ -8770,7 +8785,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC129" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
@@ -8833,7 +8848,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC132" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
@@ -8928,7 +8943,7 @@
         <v>4.2</v>
       </c>
       <c r="AC136" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
@@ -9148,7 +9163,7 @@
         <v>337</v>
       </c>
       <c r="B147" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="Y147" t="s">
         <v>431</v>
@@ -9188,177 +9203,177 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D3" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C6" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="83" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="83" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="83" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="83" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="83" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="83" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="83" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="83" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="2:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9369,79 +9384,79 @@
         <v>20</v>
       </c>
       <c r="D33" s="85" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E33" s="85" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G33" s="84" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H33" s="84" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="86" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D34" s="84" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E34" s="87" t="s">
         <v>167</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G34" s="84" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="H34" s="84" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="86" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D35" s="84" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E35" s="87" t="s">
         <v>167</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G35" s="84" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="H35" s="84" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="88" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D36" s="88" t="s">
+        <v>839</v>
+      </c>
+      <c r="E36" s="89" t="s">
         <v>846</v>
       </c>
-      <c r="E36" s="89" t="s">
-        <v>853</v>
-      </c>
       <c r="F36" s="88" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G36" s="88" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="H36" s="88" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9449,19 +9464,19 @@
         <v>569</v>
       </c>
       <c r="D37" s="84" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E37" s="87" t="s">
         <v>167</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G37" s="84" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="H37" s="84" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9469,19 +9484,19 @@
         <v>40</v>
       </c>
       <c r="D38" s="84" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E38" s="87" t="s">
         <v>167</v>
       </c>
       <c r="F38" s="84" t="s">
+        <v>844</v>
+      </c>
+      <c r="G38" s="84" t="s">
         <v>851</v>
       </c>
-      <c r="G38" s="84" t="s">
-        <v>858</v>
-      </c>
       <c r="H38" s="84" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9489,16 +9504,16 @@
         <v>88</v>
       </c>
       <c r="D39" s="84" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E39" s="87" t="s">
         <v>167</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G39" s="84" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9506,13 +9521,13 @@
         <v>47</v>
       </c>
       <c r="D40" s="84" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G40" s="84"/>
     </row>
@@ -9521,29 +9536,29 @@
         <v>51</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G41" s="84"/>
     </row>
     <row r="42" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="84" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E42" s="84"/>
       <c r="F42" s="84" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G42" s="84" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9553,59 +9568,59 @@
     </row>
     <row r="44" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="81" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="90" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="90" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="90" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="90" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="90" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="51" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C51" s="90"/>
       <c r="E51" s="1" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="52" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="90" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -9707,10 +9722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:XFD117"/>
+    <sheetView topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10441,7 +10456,7 @@
         <v>4.2</v>
       </c>
       <c r="B113" s="92" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C113" s="93"/>
     </row>
@@ -10455,14 +10470,14 @@
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="94"/>
       <c r="B115" s="96" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C115" s="95"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="94"/>
       <c r="B116" s="96" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C116" s="95"/>
     </row>
@@ -10476,60 +10491,65 @@
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="94"/>
       <c r="B118" s="10" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C118" s="95"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="94"/>
       <c r="B119" s="10" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="94"/>
       <c r="B120" s="10" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="C120" s="95"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="94"/>
       <c r="B121" s="10" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C121" s="95"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="94"/>
       <c r="B122" s="10" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C122" s="95"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="94"/>
       <c r="B123" s="10" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C123" s="95"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="94"/>
       <c r="B124" s="11" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C124" s="95"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="94"/>
       <c r="B125" s="10" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C125" s="95"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="98" t="s">
+        <v>885</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10708,7 +10728,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>

--- a/TMA_Metrics.xlsx
+++ b/TMA_Metrics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="14_{AAF1D2F5-203B-4C1D-911C-2670D4607C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F37D8812-048F-4FC3-9431-14B49491AFE0}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="14_{AAF1D2F5-203B-4C1D-911C-2670D4607C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A787282-66BA-49E5-ACC1-6399AF668E8B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Revision History'!$B$26:$C$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TMA!$A$3:$AD$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TMA!$A$3:$AD$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="893">
   <si>
     <t>TMA</t>
   </si>
@@ -3607,6 +3607,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ( Branch_Mispredicts + Fetch_Latency * Branch_Resteers / ##Fetch_Latency ) * SLOTS / BR_MISP_RETIRED.ALL_BRANCHES_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L2_HIT</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_RETIRED.L2_HIT_PS * ( 1 + #FBHit_per_L1Miss )</t>
   </si>
 </sst>
 </file>
@@ -4694,7 +4700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F6136-1574-414C-8691-CBD559C3C765}">
-  <dimension ref="A1:AD147"/>
+  <dimension ref="A1:AD148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -4746,7 +4752,7 @@
       <c r="Z1" s="54"/>
       <c r="AA1" s="54"/>
       <c r="AB1" s="97">
-        <v>4.2030000000000003</v>
+        <v>4.2039999999999997</v>
       </c>
       <c r="AC1" s="54"/>
       <c r="AD1" s="54"/>
@@ -8430,16 +8436,10 @@
         <v>337</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
-      </c>
-      <c r="N115" t="s">
-        <v>698</v>
-      </c>
-      <c r="R115" t="s">
-        <v>380</v>
-      </c>
-      <c r="T115" t="s">
-        <v>381</v>
+        <v>891</v>
+      </c>
+      <c r="O115" t="s">
+        <v>892</v>
       </c>
       <c r="W115" t="s">
         <v>38</v>
@@ -8448,10 +8448,7 @@
         <v>192</v>
       </c>
       <c r="AB115">
-        <v>3.4</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.25">
@@ -8459,10 +8456,16 @@
         <v>337</v>
       </c>
       <c r="B116" t="s">
-        <v>382</v>
-      </c>
-      <c r="L116" t="s">
-        <v>699</v>
+        <v>379</v>
+      </c>
+      <c r="N116" t="s">
+        <v>698</v>
+      </c>
+      <c r="R116" t="s">
+        <v>380</v>
+      </c>
+      <c r="T116" t="s">
+        <v>381</v>
       </c>
       <c r="W116" t="s">
         <v>38</v>
@@ -8471,7 +8474,7 @@
         <v>192</v>
       </c>
       <c r="AB116">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC116" t="s">
         <v>3</v>
@@ -8482,16 +8485,10 @@
         <v>337</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
-      </c>
-      <c r="N117" t="s">
-        <v>700</v>
-      </c>
-      <c r="R117" t="s">
-        <v>391</v>
-      </c>
-      <c r="T117" t="s">
-        <v>392</v>
+        <v>382</v>
+      </c>
+      <c r="L117" t="s">
+        <v>699</v>
       </c>
       <c r="W117" t="s">
         <v>38</v>
@@ -8500,7 +8497,7 @@
         <v>192</v>
       </c>
       <c r="AB117">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AC117" t="s">
         <v>3</v>
@@ -8511,16 +8508,16 @@
         <v>337</v>
       </c>
       <c r="B118" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N118" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R118" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="T118" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="W118" t="s">
         <v>38</v>
@@ -8540,16 +8537,16 @@
         <v>337</v>
       </c>
       <c r="B119" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N119" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R119" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="T119" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="W119" t="s">
         <v>38</v>
@@ -8569,10 +8566,16 @@
         <v>337</v>
       </c>
       <c r="B120" t="s">
-        <v>383</v>
-      </c>
-      <c r="L120" t="s">
-        <v>703</v>
+        <v>384</v>
+      </c>
+      <c r="N120" t="s">
+        <v>702</v>
+      </c>
+      <c r="R120" t="s">
+        <v>385</v>
+      </c>
+      <c r="T120" t="s">
+        <v>386</v>
       </c>
       <c r="W120" t="s">
         <v>38</v>
@@ -8581,7 +8584,7 @@
         <v>192</v>
       </c>
       <c r="AB120">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AC120" t="s">
         <v>3</v>
@@ -8592,16 +8595,22 @@
         <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
-      </c>
-      <c r="O121" t="s">
-        <v>408</v>
+        <v>383</v>
+      </c>
+      <c r="L121" t="s">
+        <v>703</v>
+      </c>
+      <c r="W121" t="s">
+        <v>38</v>
       </c>
       <c r="Y121" t="s">
-        <v>406</v>
+        <v>192</v>
       </c>
       <c r="AB121">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
@@ -8609,22 +8618,16 @@
         <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>413</v>
-      </c>
-      <c r="L122" t="s">
-        <v>414</v>
-      </c>
-      <c r="W122" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="O122" t="s">
+        <v>408</v>
       </c>
       <c r="Y122" t="s">
         <v>406</v>
       </c>
       <c r="AB122">
-        <v>3.5</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
@@ -8632,27 +8635,21 @@
         <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>409</v>
-      </c>
-      <c r="O123" t="s">
+        <v>413</v>
+      </c>
+      <c r="L123" t="s">
+        <v>414</v>
+      </c>
+      <c r="W123" t="s">
         <v>38</v>
-      </c>
-      <c r="S123" t="s">
-        <v>410</v>
-      </c>
-      <c r="U123" t="s">
-        <v>411</v>
-      </c>
-      <c r="V123" t="s">
-        <v>411</v>
-      </c>
-      <c r="W123" t="s">
-        <v>412</v>
       </c>
       <c r="Y123" t="s">
         <v>406</v>
       </c>
       <c r="AB123">
+        <v>3.5</v>
+      </c>
+      <c r="AC123" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8661,22 +8658,28 @@
         <v>337</v>
       </c>
       <c r="B124" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="O124" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>404</v>
+        <v>38</v>
+      </c>
+      <c r="S124" t="s">
+        <v>410</v>
+      </c>
+      <c r="U124" t="s">
+        <v>411</v>
+      </c>
+      <c r="V124" t="s">
+        <v>411</v>
       </c>
       <c r="W124" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Y124" t="s">
         <v>406</v>
       </c>
       <c r="AB124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
@@ -8684,19 +8687,22 @@
         <v>337</v>
       </c>
       <c r="B125" t="s">
-        <v>415</v>
+        <v>402</v>
+      </c>
+      <c r="O125" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>404</v>
       </c>
       <c r="W125" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="Y125" t="s">
         <v>406</v>
       </c>
       <c r="AB125">
-        <v>4.2</v>
-      </c>
-      <c r="AC125" t="s">
-        <v>548</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
@@ -8704,19 +8710,19 @@
         <v>337</v>
       </c>
       <c r="B126" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="W126" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="Y126" t="s">
-        <v>192</v>
+        <v>406</v>
       </c>
       <c r="AB126">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="AC126" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
@@ -8724,13 +8730,10 @@
         <v>337</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="W127" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Y127" t="s">
         <v>192</v>
@@ -8747,22 +8750,22 @@
         <v>337</v>
       </c>
       <c r="B128" t="s">
-        <v>628</v>
-      </c>
-      <c r="I128" t="s">
-        <v>884</v>
+        <v>368</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>369</v>
       </c>
       <c r="W128" t="s">
-        <v>38</v>
+        <v>370</v>
       </c>
       <c r="Y128" t="s">
         <v>192</v>
       </c>
       <c r="AB128">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="AC128" t="s">
-        <v>712</v>
+        <v>624</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
@@ -8770,16 +8773,16 @@
         <v>337</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
-      </c>
-      <c r="I129">
-        <v>5</v>
-      </c>
-      <c r="W129">
-        <v>4</v>
+        <v>628</v>
+      </c>
+      <c r="I129" t="s">
+        <v>884</v>
+      </c>
+      <c r="W129" t="s">
+        <v>38</v>
       </c>
       <c r="Y129" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="AB129">
         <v>4.0999999999999996</v>
@@ -8793,19 +8796,22 @@
         <v>337</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
-      </c>
-      <c r="J130" t="s">
-        <v>38</v>
-      </c>
-      <c r="W130" t="s">
-        <v>347</v>
+        <v>418</v>
+      </c>
+      <c r="I130">
+        <v>5</v>
+      </c>
+      <c r="W130">
+        <v>4</v>
       </c>
       <c r="Y130" t="s">
-        <v>192</v>
+        <v>419</v>
       </c>
       <c r="AB130">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
@@ -8813,16 +8819,19 @@
         <v>337</v>
       </c>
       <c r="B131" t="s">
-        <v>627</v>
+        <v>346</v>
+      </c>
+      <c r="J131" t="s">
+        <v>38</v>
       </c>
       <c r="W131" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="Y131" t="s">
-        <v>406</v>
+        <v>192</v>
       </c>
       <c r="AB131">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
@@ -8830,25 +8839,16 @@
         <v>337</v>
       </c>
       <c r="B132" t="s">
-        <v>427</v>
-      </c>
-      <c r="I132" t="s">
-        <v>704</v>
+        <v>627</v>
       </c>
       <c r="W132" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Y132" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z132" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="AB132">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AC132" t="s">
-        <v>712</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
@@ -8856,22 +8856,25 @@
         <v>337</v>
       </c>
       <c r="B133" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>38</v>
-      </c>
-      <c r="U133" t="s">
-        <v>361</v>
+        <v>427</v>
+      </c>
+      <c r="I133" t="s">
+        <v>704</v>
       </c>
       <c r="W133" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="Y133" t="s">
         <v>192</v>
       </c>
+      <c r="Z133" t="s">
+        <v>429</v>
+      </c>
       <c r="AB133">
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
@@ -8879,22 +8882,22 @@
         <v>337</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q134" t="s">
         <v>38</v>
       </c>
       <c r="U134" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="W134" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y134" t="s">
         <v>192</v>
       </c>
       <c r="AB134">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -8902,19 +8905,22 @@
         <v>337</v>
       </c>
       <c r="B135" t="s">
-        <v>420</v>
-      </c>
-      <c r="O135" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q135" t="s">
         <v>38</v>
       </c>
-      <c r="W135">
-        <v>7</v>
+      <c r="U135" t="s">
+        <v>364</v>
+      </c>
+      <c r="W135" t="s">
+        <v>365</v>
       </c>
       <c r="Y135" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="AB135">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
@@ -8922,16 +8928,10 @@
         <v>337</v>
       </c>
       <c r="B136" t="s">
-        <v>421</v>
-      </c>
-      <c r="I136">
-        <v>7</v>
-      </c>
-      <c r="O136">
-        <v>9</v>
-      </c>
-      <c r="S136">
-        <v>8</v>
+        <v>420</v>
+      </c>
+      <c r="O136" t="s">
+        <v>38</v>
       </c>
       <c r="W136">
         <v>7</v>
@@ -8940,10 +8940,7 @@
         <v>419</v>
       </c>
       <c r="AB136">
-        <v>4.2</v>
-      </c>
-      <c r="AC136" t="s">
-        <v>739</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
@@ -8951,22 +8948,28 @@
         <v>337</v>
       </c>
       <c r="B137" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O137">
         <v>9</v>
       </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
       <c r="W137">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y137" t="s">
         <v>419</v>
       </c>
       <c r="AB137">
-        <v>4</v>
+        <v>4.2</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
@@ -8974,16 +8977,16 @@
         <v>337</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
-      </c>
-      <c r="J138">
-        <v>3</v>
-      </c>
-      <c r="S138">
-        <v>2</v>
+        <v>422</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+      <c r="O138">
+        <v>9</v>
       </c>
       <c r="W138">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y138" t="s">
         <v>419</v>
@@ -8997,16 +9000,22 @@
         <v>337</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="J139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>1000000</v>
+        <v>3</v>
       </c>
       <c r="Y139" t="s">
         <v>419</v>
       </c>
       <c r="AB139">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
@@ -9014,16 +9023,16 @@
         <v>337</v>
       </c>
       <c r="B140" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W140">
-        <v>1000000000</v>
+        <v>1000000</v>
       </c>
       <c r="Y140" t="s">
         <v>419</v>
       </c>
       <c r="AB140">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
@@ -9031,13 +9040,10 @@
         <v>337</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
-      </c>
-      <c r="S141">
-        <v>61</v>
-      </c>
-      <c r="U141">
-        <v>15.6</v>
+        <v>425</v>
+      </c>
+      <c r="W141">
+        <v>1000000000</v>
       </c>
       <c r="Y141" t="s">
         <v>419</v>
@@ -9051,16 +9057,19 @@
         <v>337</v>
       </c>
       <c r="B142" t="s">
-        <v>430</v>
-      </c>
-      <c r="W142">
-        <v>1</v>
+        <v>426</v>
+      </c>
+      <c r="S142">
+        <v>61</v>
+      </c>
+      <c r="U142">
+        <v>15.6</v>
       </c>
       <c r="Y142" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AB142">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
@@ -9068,13 +9077,7 @@
         <v>337</v>
       </c>
       <c r="B143" t="s">
-        <v>432</v>
-      </c>
-      <c r="I143" t="s">
-        <v>38</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="W143">
         <v>1</v>
@@ -9082,11 +9085,8 @@
       <c r="Y143" t="s">
         <v>431</v>
       </c>
-      <c r="Z143" t="s">
-        <v>433</v>
-      </c>
       <c r="AB143">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
@@ -9094,22 +9094,25 @@
         <v>337</v>
       </c>
       <c r="B144" t="s">
-        <v>705</v>
-      </c>
-      <c r="W144" t="s">
+        <v>432</v>
+      </c>
+      <c r="I144" t="s">
         <v>38</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>1</v>
       </c>
       <c r="Y144" t="s">
         <v>431</v>
       </c>
       <c r="Z144" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AB144">
-        <v>3.4</v>
-      </c>
-      <c r="AC144" t="s">
-        <v>194</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
@@ -9117,10 +9120,7 @@
         <v>337</v>
       </c>
       <c r="B145" t="s">
-        <v>706</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
+        <v>705</v>
       </c>
       <c r="W145" t="s">
         <v>38</v>
@@ -9128,11 +9128,14 @@
       <c r="Y145" t="s">
         <v>431</v>
       </c>
+      <c r="Z145" t="s">
+        <v>434</v>
+      </c>
       <c r="AB145">
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="AC145" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
@@ -9140,19 +9143,19 @@
         <v>337</v>
       </c>
       <c r="B146" t="s">
-        <v>435</v>
-      </c>
-      <c r="L146" t="s">
-        <v>707</v>
+        <v>706</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
       </c>
       <c r="W146" t="s">
         <v>38</v>
       </c>
       <c r="Y146" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="AB146">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AC146" t="s">
         <v>3</v>
@@ -9163,20 +9166,43 @@
         <v>337</v>
       </c>
       <c r="B147" t="s">
-        <v>794</v>
+        <v>435</v>
+      </c>
+      <c r="L147" t="s">
+        <v>707</v>
+      </c>
+      <c r="W147" t="s">
+        <v>38</v>
       </c>
       <c r="Y147" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AB147">
         <v>4.2</v>
       </c>
       <c r="AC147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>337</v>
+      </c>
+      <c r="B148" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB148">
+        <v>4.2</v>
+      </c>
+      <c r="AC148" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AD148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
